--- a/Bridge Results.xlsx
+++ b/Bridge Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\AppData\Local\GitHubDesktop\app-2.9.6\Mechanical_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D2E51-C784-476E-A453-4879EAD2AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E64EE4-2D85-4E05-B705-A1654CF13701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bridge" sheetId="1" r:id="rId1"/>
+    <sheet name="Sugimoto" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Capacity</t>
   </si>
@@ -157,13 +158,22 @@
   </si>
   <si>
     <t>Good Bridge18</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sugimoto</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +187,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +227,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,11 +257,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -246,6 +390,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1030,4 +1186,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E42B3-3E98-4572-983A-0D8C8DE4B54C}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>